--- a/EQUI/tblTOTAL EQUIPMENT LIST.xlsx
+++ b/EQUI/tblTOTAL EQUIPMENT LIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ACCESS PV\EQUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B77E84-12FB-4462-800F-6EA1ABA3DC9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A45757E-A983-4699-9940-F944DD6FE8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="11352" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL" sheetId="89" r:id="rId1"/>
@@ -19,12 +19,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TOTAL!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TOTAL!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="553">
   <si>
     <t>12X26</t>
   </si>
@@ -1019,66 +1027,30 @@
     <t>PV-410</t>
   </si>
   <si>
-    <t xml:space="preserve">BACKHOE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIDEBOOM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRACTOR </t>
-  </si>
-  <si>
     <t>TANKER TRUCK</t>
   </si>
   <si>
-    <t xml:space="preserve">GENERATOR </t>
-  </si>
-  <si>
     <t>WATER PUMP</t>
   </si>
   <si>
     <t>CONCRETE CUTTER</t>
   </si>
   <si>
-    <t xml:space="preserve">FLATBED TRUCK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIGH BED TRAILER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLLER  COMPACTOR </t>
-  </si>
-  <si>
     <t>JACK HAMMER</t>
   </si>
   <si>
-    <t xml:space="preserve">PIPE DOLLY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONCRETE VIBRATOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLATE COMPACTOR </t>
-  </si>
-  <si>
     <t>ELECTRIC WELDING MACHINE</t>
   </si>
   <si>
     <t>DE-WATERING PUMP</t>
   </si>
   <si>
-    <t xml:space="preserve">TRAIN COMPACTOR </t>
-  </si>
-  <si>
     <t>LOWBED</t>
   </si>
   <si>
     <t>WELDING MACHINE</t>
   </si>
   <si>
-    <t xml:space="preserve">AIR COMPRESSOR </t>
-  </si>
-  <si>
     <t>ROLLER COMPACTOR</t>
   </si>
   <si>
@@ -1692,6 +1664,33 @@
   </si>
   <si>
     <t>NEED REPAIR (AL ESSA)</t>
+  </si>
+  <si>
+    <t>SIDEBOOM</t>
+  </si>
+  <si>
+    <t>TRACTOR</t>
+  </si>
+  <si>
+    <t>FLATBED TRUCK</t>
+  </si>
+  <si>
+    <t>HIGH BED TRAILER</t>
+  </si>
+  <si>
+    <t>PIPE DOLLY</t>
+  </si>
+  <si>
+    <t>CONCRETE VIBRATOR</t>
+  </si>
+  <si>
+    <t>PLATE COMPACTOR</t>
+  </si>
+  <si>
+    <t>TRAIN COMPACTOR</t>
+  </si>
+  <si>
+    <t>AIR COMPRESSOR</t>
   </si>
 </sst>
 </file>
@@ -2434,7 +2433,7 @@
   <dimension ref="A1:E329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.65"/>
@@ -2455,13 +2454,13 @@
         <v>290</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2472,13 +2471,13 @@
         <v>291</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2489,13 +2488,13 @@
         <v>292</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2506,13 +2505,13 @@
         <v>293</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2523,13 +2522,13 @@
         <v>294</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2540,13 +2539,13 @@
         <v>295</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2557,13 +2556,13 @@
         <v>330</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2574,13 +2573,13 @@
         <v>296</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2591,13 +2590,13 @@
         <v>297</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2608,13 +2607,13 @@
         <v>298</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2625,13 +2624,13 @@
         <v>299</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2642,13 +2641,13 @@
         <v>300</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2659,13 +2658,13 @@
         <v>301</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2676,13 +2675,13 @@
         <v>302</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2693,13 +2692,13 @@
         <v>303</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2710,13 +2709,13 @@
         <v>304</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2727,13 +2726,13 @@
         <v>305</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2744,13 +2743,13 @@
         <v>306</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2761,13 +2760,13 @@
         <v>307</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2778,13 +2777,13 @@
         <v>265</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>308</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2795,13 +2794,13 @@
         <v>267</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2812,13 +2811,13 @@
         <v>268</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2829,13 +2828,13 @@
         <v>269</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2846,13 +2845,13 @@
         <v>270</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2863,13 +2862,13 @@
         <v>271</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2880,13 +2879,13 @@
         <v>280</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2897,13 +2896,13 @@
         <v>281</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2914,13 +2913,13 @@
         <v>273</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>308</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2931,13 +2930,13 @@
         <v>282</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2948,13 +2947,13 @@
         <v>283</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2965,13 +2964,13 @@
         <v>284</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.65">
@@ -2982,13 +2981,13 @@
         <v>285</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>309</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2999,13 +2998,13 @@
         <v>261</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3016,13 +3015,13 @@
         <v>262</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3033,13 +3032,13 @@
         <v>263</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>308</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3050,13 +3049,13 @@
         <v>264</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>308</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3067,13 +3066,13 @@
         <v>274</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>309</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3084,13 +3083,13 @@
         <v>275</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>309</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3101,13 +3100,13 @@
         <v>266</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3118,13 +3117,13 @@
         <v>323</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3135,13 +3134,13 @@
         <v>288</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3152,13 +3151,13 @@
         <v>326</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3169,13 +3168,13 @@
         <v>324</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3186,13 +3185,13 @@
         <v>325</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3203,13 +3202,13 @@
         <v>315</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3220,13 +3219,13 @@
         <v>316</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3237,13 +3236,13 @@
         <v>317</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3254,13 +3253,13 @@
         <v>318</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3271,13 +3270,13 @@
         <v>319</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3288,13 +3287,13 @@
         <v>320</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3305,13 +3304,13 @@
         <v>321</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3322,13 +3321,13 @@
         <v>322</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3339,13 +3338,13 @@
         <v>276</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3356,13 +3355,13 @@
         <v>277</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3373,13 +3372,13 @@
         <v>272</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>308</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3390,13 +3389,13 @@
         <v>278</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3407,13 +3406,13 @@
         <v>279</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3424,13 +3423,13 @@
         <v>286</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3441,13 +3440,13 @@
         <v>287</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3458,13 +3457,13 @@
         <v>289</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3475,13 +3474,13 @@
         <v>310</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3492,13 +3491,13 @@
         <v>17</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3509,13 +3508,13 @@
         <v>18</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3529,10 +3528,10 @@
         <v>117</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3546,10 +3545,10 @@
         <v>117</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3563,10 +3562,10 @@
         <v>117</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3580,10 +3579,10 @@
         <v>117</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3597,10 +3596,10 @@
         <v>117</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3614,10 +3613,10 @@
         <v>117</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3631,10 +3630,10 @@
         <v>117</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3648,10 +3647,10 @@
         <v>117</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3659,16 +3658,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3676,16 +3675,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3693,16 +3692,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3710,16 +3709,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3727,16 +3726,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3744,16 +3743,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3761,16 +3760,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3778,16 +3777,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3795,16 +3794,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3812,16 +3811,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3832,13 +3831,13 @@
         <v>42</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3849,13 +3848,13 @@
         <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3866,13 +3865,13 @@
         <v>37</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3883,13 +3882,13 @@
         <v>38</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3900,13 +3899,13 @@
         <v>43</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3917,13 +3916,13 @@
         <v>39</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3934,13 +3933,13 @@
         <v>40</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3951,13 +3950,13 @@
         <v>41</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3968,13 +3967,13 @@
         <v>44</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3985,13 +3984,13 @@
         <v>45</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4008,7 +4007,7 @@
         <v>7</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4025,7 +4024,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4036,13 +4035,13 @@
         <v>46</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>332</v>
+        <v>544</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4053,13 +4052,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>332</v>
+        <v>544</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4070,13 +4069,13 @@
         <v>48</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>332</v>
+        <v>544</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4087,13 +4086,13 @@
         <v>49</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>332</v>
+        <v>544</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4104,13 +4103,13 @@
         <v>50</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>332</v>
+        <v>544</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4121,13 +4120,13 @@
         <v>51</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>332</v>
+        <v>544</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4138,13 +4137,13 @@
         <v>52</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>332</v>
+        <v>544</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4155,13 +4154,13 @@
         <v>66</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4172,13 +4171,13 @@
         <v>53</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4189,13 +4188,13 @@
         <v>54</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4206,13 +4205,13 @@
         <v>55</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4223,13 +4222,13 @@
         <v>56</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4240,13 +4239,13 @@
         <v>67</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4257,13 +4256,13 @@
         <v>57</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4274,13 +4273,13 @@
         <v>58</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4291,13 +4290,13 @@
         <v>59</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4308,13 +4307,13 @@
         <v>60</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4325,13 +4324,13 @@
         <v>0</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>311</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4342,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>311</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4359,13 +4358,13 @@
         <v>2</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>311</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4376,13 +4375,13 @@
         <v>3</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>311</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4393,13 +4392,13 @@
         <v>4</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>333</v>
+        <v>545</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>311</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4410,13 +4409,13 @@
         <v>68</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4427,13 +4426,13 @@
         <v>69</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4444,13 +4443,13 @@
         <v>70</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4461,13 +4460,13 @@
         <v>71</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4478,13 +4477,13 @@
         <v>72</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4495,13 +4494,13 @@
         <v>73</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4512,13 +4511,13 @@
         <v>74</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4529,13 +4528,13 @@
         <v>75</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4546,13 +4545,13 @@
         <v>76</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4563,13 +4562,13 @@
         <v>61</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4580,13 +4579,13 @@
         <v>62</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4597,13 +4596,13 @@
         <v>63</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4614,13 +4613,13 @@
         <v>64</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4631,13 +4630,13 @@
         <v>65</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4648,13 +4647,13 @@
         <v>79</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4665,13 +4664,13 @@
         <v>80</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4682,13 +4681,13 @@
         <v>81</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4699,13 +4698,13 @@
         <v>82</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4716,13 +4715,13 @@
         <v>11</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4733,13 +4732,13 @@
         <v>83</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4750,13 +4749,13 @@
         <v>84</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4767,13 +4766,13 @@
         <v>9</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>312</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4784,13 +4783,13 @@
         <v>10</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>312</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4801,13 +4800,13 @@
         <v>12</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4818,13 +4817,13 @@
         <v>13</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4835,13 +4834,13 @@
         <v>27</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4855,10 +4854,10 @@
         <v>314</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4872,10 +4871,10 @@
         <v>314</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4889,10 +4888,10 @@
         <v>314</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4909,7 +4908,7 @@
         <v>314</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4920,13 +4919,13 @@
         <v>88</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4937,13 +4936,13 @@
         <v>89</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4954,13 +4953,13 @@
         <v>90</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4971,13 +4970,13 @@
         <v>91</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4988,13 +4987,13 @@
         <v>92</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5005,13 +5004,13 @@
         <v>93</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5022,13 +5021,13 @@
         <v>94</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5039,13 +5038,13 @@
         <v>95</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5056,13 +5055,13 @@
         <v>96</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5073,13 +5072,13 @@
         <v>97</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5090,11 +5089,11 @@
         <v>15</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5105,11 +5104,11 @@
         <v>16</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5120,11 +5119,11 @@
         <v>19</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5135,11 +5134,11 @@
         <v>26</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5150,13 +5149,13 @@
         <v>98</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5167,13 +5166,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5184,13 +5183,13 @@
         <v>100</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5201,13 +5200,13 @@
         <v>101</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5218,13 +5217,13 @@
         <v>102</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5235,13 +5234,13 @@
         <v>103</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5252,13 +5251,13 @@
         <v>104</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5269,13 +5268,13 @@
         <v>105</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5286,13 +5285,13 @@
         <v>106</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5303,13 +5302,13 @@
         <v>107</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5320,13 +5319,13 @@
         <v>108</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5337,13 +5336,13 @@
         <v>109</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5354,13 +5353,13 @@
         <v>110</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5371,13 +5370,13 @@
         <v>111</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5388,13 +5387,13 @@
         <v>112</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5405,13 +5404,13 @@
         <v>113</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5422,13 +5421,13 @@
         <v>114</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5439,13 +5438,13 @@
         <v>115</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5456,13 +5455,13 @@
         <v>116</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5473,13 +5472,13 @@
         <v>118</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5490,13 +5489,13 @@
         <v>119</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5507,13 +5506,13 @@
         <v>120</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5524,13 +5523,13 @@
         <v>121</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5541,13 +5540,13 @@
         <v>122</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5558,13 +5557,13 @@
         <v>123</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5575,13 +5574,13 @@
         <v>124</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>339</v>
+        <v>547</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5592,13 +5591,13 @@
         <v>125</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>339</v>
+        <v>547</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5609,13 +5608,13 @@
         <v>126</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>339</v>
+        <v>547</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5626,13 +5625,13 @@
         <v>127</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>339</v>
+        <v>547</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5643,13 +5642,13 @@
         <v>129</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>339</v>
+        <v>547</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5663,10 +5662,10 @@
         <v>139</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5680,10 +5679,10 @@
         <v>139</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5697,10 +5696,10 @@
         <v>139</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5714,10 +5713,10 @@
         <v>139</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5731,10 +5730,10 @@
         <v>139</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5748,10 +5747,10 @@
         <v>139</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5765,10 +5764,10 @@
         <v>139</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5782,10 +5781,10 @@
         <v>139</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5799,10 +5798,10 @@
         <v>139</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5816,10 +5815,10 @@
         <v>139</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5833,10 +5832,10 @@
         <v>139</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5853,7 +5852,7 @@
         <v>139</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5864,13 +5863,13 @@
         <v>142</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5881,13 +5880,13 @@
         <v>143</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5898,13 +5897,13 @@
         <v>144</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5915,13 +5914,13 @@
         <v>145</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5932,13 +5931,13 @@
         <v>21</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>312</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5949,13 +5948,13 @@
         <v>146</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5966,13 +5965,13 @@
         <v>147</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5983,13 +5982,13 @@
         <v>148</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6000,13 +5999,13 @@
         <v>149</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6017,13 +6016,13 @@
         <v>150</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6034,13 +6033,13 @@
         <v>151</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6051,13 +6050,13 @@
         <v>152</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6068,13 +6067,13 @@
         <v>153</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6085,13 +6084,13 @@
         <v>154</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6102,13 +6101,13 @@
         <v>155</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6119,13 +6118,13 @@
         <v>156</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6136,13 +6135,13 @@
         <v>157</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6153,13 +6152,13 @@
         <v>158</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6170,13 +6169,13 @@
         <v>159</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6187,13 +6186,13 @@
         <v>160</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6204,13 +6203,13 @@
         <v>161</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6221,13 +6220,13 @@
         <v>162</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6238,13 +6237,13 @@
         <v>163</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6255,13 +6254,13 @@
         <v>164</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6272,13 +6271,13 @@
         <v>165</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6289,13 +6288,13 @@
         <v>166</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>342</v>
+        <v>548</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6306,13 +6305,13 @@
         <v>167</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>342</v>
+        <v>548</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6323,13 +6322,13 @@
         <v>168</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>342</v>
+        <v>548</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6340,13 +6339,13 @@
         <v>169</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>342</v>
+        <v>548</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6357,13 +6356,13 @@
         <v>170</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>342</v>
+        <v>548</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6374,13 +6373,13 @@
         <v>171</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>342</v>
+        <v>548</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6391,13 +6390,13 @@
         <v>172</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>342</v>
+        <v>548</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6408,13 +6407,13 @@
         <v>173</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>342</v>
+        <v>548</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6425,13 +6424,13 @@
         <v>174</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>343</v>
+        <v>549</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6442,13 +6441,13 @@
         <v>175</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>343</v>
+        <v>549</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6459,13 +6458,13 @@
         <v>176</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>343</v>
+        <v>549</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6476,13 +6475,13 @@
         <v>177</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>343</v>
+        <v>549</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6493,13 +6492,13 @@
         <v>178</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>343</v>
+        <v>549</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6513,10 +6512,10 @@
         <v>179</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6530,10 +6529,10 @@
         <v>179</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6547,10 +6546,10 @@
         <v>179</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6564,10 +6563,10 @@
         <v>179</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6578,13 +6577,13 @@
         <v>184</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6595,13 +6594,13 @@
         <v>185</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6612,13 +6611,13 @@
         <v>186</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6629,13 +6628,13 @@
         <v>187</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6646,13 +6645,13 @@
         <v>188</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6663,13 +6662,13 @@
         <v>189</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6680,13 +6679,13 @@
         <v>190</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6697,13 +6696,13 @@
         <v>191</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6714,13 +6713,13 @@
         <v>192</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6731,13 +6730,13 @@
         <v>193</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6748,13 +6747,13 @@
         <v>194</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6765,13 +6764,13 @@
         <v>195</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6782,13 +6781,13 @@
         <v>196</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6799,13 +6798,13 @@
         <v>197</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6816,13 +6815,13 @@
         <v>198</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6833,13 +6832,13 @@
         <v>201</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6850,13 +6849,13 @@
         <v>202</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6867,13 +6866,13 @@
         <v>203</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6884,13 +6883,13 @@
         <v>204</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6901,13 +6900,13 @@
         <v>205</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6918,13 +6917,13 @@
         <v>206</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6935,13 +6934,13 @@
         <v>207</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6952,13 +6951,13 @@
         <v>208</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6969,13 +6968,13 @@
         <v>209</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6986,13 +6985,13 @@
         <v>210</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7003,13 +7002,13 @@
         <v>211</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>347</v>
+        <v>551</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7017,16 +7016,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7034,16 +7033,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7051,16 +7050,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7068,16 +7067,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7085,16 +7084,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7105,13 +7104,13 @@
         <v>212</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7122,13 +7121,13 @@
         <v>213</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7139,13 +7138,13 @@
         <v>214</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7156,13 +7155,13 @@
         <v>215</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7173,13 +7172,13 @@
         <v>216</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7190,13 +7189,13 @@
         <v>217</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7207,13 +7206,13 @@
         <v>218</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7224,13 +7223,13 @@
         <v>219</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7241,13 +7240,13 @@
         <v>220</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7258,13 +7257,13 @@
         <v>221</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7275,13 +7274,13 @@
         <v>222</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7292,13 +7291,13 @@
         <v>24</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7309,13 +7308,13 @@
         <v>223</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7326,13 +7325,13 @@
         <v>224</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7343,13 +7342,13 @@
         <v>225</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E289" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7360,13 +7359,13 @@
         <v>226</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7377,13 +7376,13 @@
         <v>227</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7394,13 +7393,13 @@
         <v>228</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7411,13 +7410,13 @@
         <v>229</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7428,13 +7427,13 @@
         <v>230</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7445,13 +7444,13 @@
         <v>231</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7462,13 +7461,13 @@
         <v>232</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E296" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7479,13 +7478,13 @@
         <v>233</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7496,13 +7495,13 @@
         <v>234</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7513,13 +7512,13 @@
         <v>235</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7530,13 +7529,13 @@
         <v>236</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7547,13 +7546,13 @@
         <v>237</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7564,13 +7563,13 @@
         <v>238</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7581,13 +7580,13 @@
         <v>239</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7598,13 +7597,13 @@
         <v>240</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7615,13 +7614,13 @@
         <v>241</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7632,13 +7631,13 @@
         <v>242</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7649,13 +7648,13 @@
         <v>243</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7669,10 +7668,10 @@
         <v>329</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7686,10 +7685,10 @@
         <v>329</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7703,10 +7702,10 @@
         <v>329</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7720,10 +7719,10 @@
         <v>329</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7734,13 +7733,13 @@
         <v>247</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7751,13 +7750,13 @@
         <v>248</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7768,13 +7767,13 @@
         <v>249</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7785,13 +7784,13 @@
         <v>250</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7802,13 +7801,13 @@
         <v>251</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7819,13 +7818,13 @@
         <v>252</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7836,13 +7835,13 @@
         <v>253</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7853,13 +7852,13 @@
         <v>254</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7870,13 +7869,13 @@
         <v>255</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7887,13 +7886,13 @@
         <v>256</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7904,13 +7903,13 @@
         <v>257</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7921,13 +7920,13 @@
         <v>258</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7938,13 +7937,13 @@
         <v>259</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7955,13 +7954,13 @@
         <v>25</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7975,10 +7974,10 @@
         <v>327</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7989,11 +7988,11 @@
         <v>128</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -8004,13 +8003,13 @@
         <v>77</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D328" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -8027,7 +8026,7 @@
         <v>181</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/EQUI/tblTOTAL EQUIPMENT LIST.xlsx
+++ b/EQUI/tblTOTAL EQUIPMENT LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ACCESS PV\EQUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A45757E-A983-4699-9940-F944DD6FE8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4E2C70-4F9D-4F03-9096-C352DBC234D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="600">
   <si>
     <t>12X26</t>
   </si>
@@ -673,18 +673,12 @@
     <t>4X22</t>
   </si>
   <si>
-    <t>4X34</t>
-  </si>
-  <si>
     <t>4X37</t>
   </si>
   <si>
     <t>4X39</t>
   </si>
   <si>
-    <t>4X42</t>
-  </si>
-  <si>
     <t>4X45</t>
   </si>
   <si>
@@ -694,18 +688,12 @@
     <t>4X53</t>
   </si>
   <si>
-    <t>4X55</t>
-  </si>
-  <si>
     <t>4X56</t>
   </si>
   <si>
     <t>4X58</t>
   </si>
   <si>
-    <t>4X61</t>
-  </si>
-  <si>
     <t>4X62</t>
   </si>
   <si>
@@ -724,9 +712,6 @@
     <t>4X67</t>
   </si>
   <si>
-    <t>4X68</t>
-  </si>
-  <si>
     <t>4X69</t>
   </si>
   <si>
@@ -739,9 +724,6 @@
     <t>4X72</t>
   </si>
   <si>
-    <t>4X73</t>
-  </si>
-  <si>
     <t>4X74</t>
   </si>
   <si>
@@ -751,12 +733,6 @@
     <t>4X76</t>
   </si>
   <si>
-    <t>4X77</t>
-  </si>
-  <si>
-    <t>4X79</t>
-  </si>
-  <si>
     <t>4X82</t>
   </si>
   <si>
@@ -1474,9 +1450,6 @@
     <t>LINCOLIN SAE400</t>
   </si>
   <si>
-    <t>LINCOLIN SAE402</t>
-  </si>
-  <si>
     <t>LINCOLIN SAE405</t>
   </si>
   <si>
@@ -1564,9 +1537,6 @@
     <t xml:space="preserve"> SMALL LOW BED</t>
   </si>
   <si>
-    <t>EQUIPMENT STATUS</t>
-  </si>
-  <si>
     <t>EXCELLENT-NEW CAR</t>
   </si>
   <si>
@@ -1612,60 +1582,24 @@
     <t xml:space="preserve">GOOD </t>
   </si>
   <si>
-    <t>NEED CHECK ENGINE-STANDBY</t>
-  </si>
-  <si>
-    <t>GOOD-NEW PASSED INSPECTION</t>
-  </si>
-  <si>
-    <t>NEED CHECK ENGINE/STANDBY</t>
-  </si>
-  <si>
     <t>FOR REPAIR ENGINE</t>
   </si>
   <si>
-    <t>NEED REPAIR/STANDBY</t>
-  </si>
-  <si>
-    <t>NEED REPAIR</t>
-  </si>
-  <si>
     <t>NEED REPAIR ALL CYLINDER-LEAKING</t>
   </si>
   <si>
-    <t>NEED CHECK /STANDBY</t>
-  </si>
-  <si>
-    <t>GOOD/AL ESSA YANBU PROJECT</t>
-  </si>
-  <si>
     <t>GOOD/HYDROTEST ACTIVITY OF AL ESSA</t>
   </si>
   <si>
-    <t>NEED CHECK/STANDBY</t>
-  </si>
-  <si>
-    <t>GOOD-STANDBY/USING</t>
-  </si>
-  <si>
     <t>NEED REPAIR- STANDBY/NO BRAKE</t>
   </si>
   <si>
-    <t>GOOD-STANDBY/MINI LOWBED</t>
-  </si>
-  <si>
-    <t>NEED CHECK BATTERY/RENEW 3RD PARTY</t>
-  </si>
-  <si>
     <t>FOR CHANGE ENGINE/ENGINE DAMAGED</t>
   </si>
   <si>
     <t>NEED REPAIR/RADIATOR LEAKING</t>
   </si>
   <si>
-    <t>NEED REPAIR (AL ESSA)</t>
-  </si>
-  <si>
     <t>SIDEBOOM</t>
   </si>
   <si>
@@ -1691,13 +1625,220 @@
   </si>
   <si>
     <t>AIR COMPRESSOR</t>
+  </si>
+  <si>
+    <t>ON GOING REPAIR FOR MVPI RENEWAL</t>
+  </si>
+  <si>
+    <t>GOOD/ESTIMARA EXPIRED</t>
+  </si>
+  <si>
+    <t>NEED REPAIR ENGINE -NO POWER</t>
+  </si>
+  <si>
+    <t>WORKING/NEED CHECK ENGINE-THIRD PARTY INSPECTION EXPIRED</t>
+  </si>
+  <si>
+    <t>GOOD-NEW THIRD PARTY INSPECTION PASSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENGINE OVERHAUL</t>
+  </si>
+  <si>
+    <t>NEED REPAIR/ENGINEOVERHEAT /BATTERY &amp;ESTIMARA EXPIRED</t>
+  </si>
+  <si>
+    <t>NEED REPAIR/ENGINE OVERHEAT/EST.EXPIRED  (DIESEL TANKER)</t>
+  </si>
+  <si>
+    <t>NEED REPAIR/ENGINE OVERHEAT/EST.EXPIRED  (WATER TANKER)</t>
+  </si>
+  <si>
+    <t>NEED REPAIRENGINE/NEED BATTERY /ALL TIRES EXPIRED/MVPI EXP.</t>
+  </si>
+  <si>
+    <t>NEED REPAIR/CLUTCH PROBLEM/NEEDD BATTERY/MVPI EXPD.</t>
+  </si>
+  <si>
+    <t>RHM/BATTERY NEED/TIRES CHANGE/DOCUMENT NOT TRANFERREDMVPI EXPD.</t>
+  </si>
+  <si>
+    <t>NEED REPAIR/ENGINE OVERHAUL</t>
+  </si>
+  <si>
+    <t>WORKING/EXPIRED ESTIMARA/NEED NEW BATTERY</t>
+  </si>
+  <si>
+    <t>NEED REPAIR/OVERHEAT/ENGINE NEED REPAIR/ESTIMARA EXPD.</t>
+  </si>
+  <si>
+    <t>NEED REPAIR/PROBLEM ON CHASSIS NO AND ENGINE NO./MVPI EXPD.</t>
+  </si>
+  <si>
+    <t>RHM TRUCK/DOCUMENTS TO KAWARI/ ENGINE NEED REPAIR/MPVI EXPD.</t>
+  </si>
+  <si>
+    <t>NEED REPAIR/ENGINE NOT WORKING</t>
+  </si>
+  <si>
+    <t>GOOD/3RD PARTY INSPECTION EXPIRED</t>
+  </si>
+  <si>
+    <t>NEED REPAIR ENGINE</t>
+  </si>
+  <si>
+    <t>WORKING/RADIATOR HOSE NEED CHANGE</t>
+  </si>
+  <si>
+    <t>GOOD /ESSA RENTAL</t>
+  </si>
+  <si>
+    <t>GOOD/WORKING IN MAJRA-LAND LEVELLING</t>
+  </si>
+  <si>
+    <t>NEED CHECK ENGINE/RADIATOR/NEED BATTERY/WORKING</t>
+  </si>
+  <si>
+    <t>WORKING/CHECK/CHANGE SPARK PLUG</t>
+  </si>
+  <si>
+    <t>WORKING</t>
+  </si>
+  <si>
+    <t>EXPIRED MVPI</t>
+  </si>
+  <si>
+    <t>NEED CHECK ENGINE/NO OPERATOR</t>
+  </si>
+  <si>
+    <t>ESTIMARA EXPIRED/WORKING</t>
+  </si>
+  <si>
+    <t>RHM TRUCK/ENGINE NOT WORKING WELL/DOCUMENTS NOT TRANFERRED TO KAWARI</t>
+  </si>
+  <si>
+    <t>WORKING/NEED CHANGE ALL TIRES</t>
+  </si>
+  <si>
+    <t>WORKING/NEED CHANGE TIRES ( WASTE WATER)</t>
+  </si>
+  <si>
+    <t>WORKING/NEED CHANGE TIRES (USED HYDROTEST WATER)</t>
+  </si>
+  <si>
+    <t>WORKING/NEED CHANGE TIRES</t>
+  </si>
+  <si>
+    <t>WORKING/NEED CHANGE TIRES (CRUDE  OIL)</t>
+  </si>
+  <si>
+    <t>WORKING/NEED CHANGE TIRES (WATER TANKER)</t>
+  </si>
+  <si>
+    <t>NEED BATTERY/NEED HUB &amp; BRAKE DRUM-2PC. LEFT BACKSIDE</t>
+  </si>
+  <si>
+    <t>20 YEARS NOT USED/FOR JUNK</t>
+  </si>
+  <si>
+    <t>WORKING/NEED TIRES</t>
+  </si>
+  <si>
+    <t>WORKING (HYDROTEST AREA)</t>
+  </si>
+  <si>
+    <t>FOR JUNK</t>
+  </si>
+  <si>
+    <t>WORKING/NEED CHANGE SPARK PLUGS</t>
+  </si>
+  <si>
+    <t>WORKING/ NEED CHANGE SPARK PLUGS</t>
+  </si>
+  <si>
+    <t>GOOD-STANDBY/USING/ NEED TIRES</t>
+  </si>
+  <si>
+    <t>GOOD-STANDBY/USING/NEED TIRES</t>
+  </si>
+  <si>
+    <t>GOOD-STANDBY/MINI LOWBED/NEED TIRES</t>
+  </si>
+  <si>
+    <t>GOOD/ NEED OUTLET 110V &amp; 220 V/CHANGE RADIATOR-LEAKING</t>
+  </si>
+  <si>
+    <t>GOOD/OUTLET 110 &amp; 220 V/CHANGE STARTING SWITCH (ON/OFF)/RADIATOR LEAKING</t>
+  </si>
+  <si>
+    <t>GOOD/WELDING HOLDER NEED CHANGE/RADIATOR LEAKING</t>
+  </si>
+  <si>
+    <t>NO GOOD/NO CURRENT/ONLY ENGINE IS WORKING</t>
+  </si>
+  <si>
+    <t>ALTERNATOR DAMAGED/REGULATOR DAMAGED/BROKEN OUTLET/RADIATOR LEAKING</t>
+  </si>
+  <si>
+    <t>GOOD/NEED OUTLET 110V &amp; 220V /CHANGE TOGGLE SWITCH ( ON/OFF)/RADIATOR LEAKING</t>
+  </si>
+  <si>
+    <t>GOOD/RADIATOR LEAKING</t>
+  </si>
+  <si>
+    <t>GOOD/NEED OUTLET 110V &amp; 220V /PUSH BUTTON STARTER NEED CHANGE</t>
+  </si>
+  <si>
+    <t>GOOD/ NEED CHANGE RADIATOR</t>
+  </si>
+  <si>
+    <t>NEED OUTLET 110V &amp; 220V/PUSH BUTTON-2EA/TOGGLE SWITCH-1 EA/NEED REGULATOR CHANGE</t>
+  </si>
+  <si>
+    <t>GOOD/DIESEL TANK LEAKED/SUPPORT NEED REPAIR/NEED RADIATOR REPAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOOD/NEED OUTLET 110V &amp; 220 V </t>
+  </si>
+  <si>
+    <t>GOOD/NEED OUTLET 110V &amp; 220 V /PUSH BUTTON NEED CHANGE</t>
+  </si>
+  <si>
+    <t>NO CURRENT/ONLY ENGINE IS WORKING</t>
+  </si>
+  <si>
+    <t>GOOD/ DIESEL LEAKING/RADIATOR LEAKING</t>
+  </si>
+  <si>
+    <t>GOOD/NEED OUTLET 110V &amp; 220 V</t>
+  </si>
+  <si>
+    <t>WELDING POWER NOT STABLE/LOW POWER</t>
+  </si>
+  <si>
+    <t>NEED REPAIR/MVPI EXPIRED</t>
+  </si>
+  <si>
+    <t>TIRES DAMAGED/NEED BATTERY/PRESSURE LESS THAN 90 PSI NOT ACCEPTED WITH ARAMCO</t>
+  </si>
+  <si>
+    <t>NEED  REPAIR ENGINE</t>
+  </si>
+  <si>
+    <t>NEED REPAIR AL HYDRAULIC (AL ESSA)</t>
+  </si>
+  <si>
+    <t>WORKING (AL ESSA USING)</t>
+  </si>
+  <si>
+    <t>EQUIPMENT STATUS2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1723,11 +1864,6 @@
       <color indexed="8"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Traditional Arabic"/>
     </font>
     <font>
       <b/>
@@ -1793,7 +1929,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1805,7 +1941,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1814,14 +1950,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1846,6 +1982,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <name val="Traditional Arabic"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2092,14 +2229,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5FD4052-3F1F-4312-91C0-557D0F028A35}" name="Table2" displayName="Table2" ref="A1:E329" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5" headerRowCellStyle="Normal 2" dataCellStyle="Normal_Sheet1">
-  <autoFilter ref="A1:E329" xr:uid="{3B1F1523-EDE1-40C7-BF8A-8DE145D9CF41}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5FD4052-3F1F-4312-91C0-557D0F028A35}" name="Table2" displayName="Table2" ref="A1:E321" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5" headerRowCellStyle="Normal 2" dataCellStyle="Normal_Sheet1">
+  <autoFilter ref="A1:E321" xr:uid="{3B1F1523-EDE1-40C7-BF8A-8DE145D9CF41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D85B1C35-E56A-4773-8A39-896D9E8AE113}" name="S/N" dataDxfId="4" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="2" xr3:uid="{8F60C6A7-E444-489E-9EF1-42F9A21A4CE1}" name="DOOR NO." dataDxfId="3" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="3" xr3:uid="{540A7134-6999-4A6C-BB80-3E34A215F2AE}" name="EQUIPMENTS TYPE" dataDxfId="2" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="4" xr3:uid="{FA636430-6F9B-404D-AF50-E64903B87CAD}" name="EQUIPMENTS BRAND" dataDxfId="1" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="5" xr3:uid="{3375363A-4F92-4002-9FFF-45FA7DD82574}" name="EQUIPMENT STATUS" dataDxfId="0" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="6" xr3:uid="{BD8164FA-79BD-49B6-9C74-B7D6EBC2AE85}" name="EQUIPMENT STATUS2" dataDxfId="0" dataCellStyle="Normal_Sheet1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2430,10 +2567,10 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E329"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.65"/>
@@ -2442,25 +2579,25 @@
     <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.88671875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>510</v>
+      <c r="B1" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2468,16 +2605,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>511</v>
+        <v>351</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2485,16 +2622,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>511</v>
+        <v>352</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2502,16 +2639,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>512</v>
+        <v>353</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2519,16 +2656,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>511</v>
+        <v>354</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2536,16 +2673,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>512</v>
+      <c r="E6" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2553,16 +2690,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>513</v>
+      <c r="E7" s="13" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2570,16 +2707,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>512</v>
+        <v>356</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2587,16 +2724,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>512</v>
+        <v>357</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2604,16 +2741,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>512</v>
+        <v>357</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2621,16 +2758,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>512</v>
+        <v>358</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2638,16 +2775,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>512</v>
+        <v>358</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2655,16 +2792,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>512</v>
+        <v>358</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2672,16 +2809,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>512</v>
+        <v>358</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2689,16 +2826,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>512</v>
+        <v>359</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2706,16 +2843,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>512</v>
+        <v>359</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2723,16 +2860,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>512</v>
+        <v>359</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2740,16 +2877,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>512</v>
+        <v>360</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2757,16 +2894,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>512</v>
+        <v>360</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2774,16 +2911,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>512</v>
+        <v>300</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2791,16 +2928,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>512</v>
+        <v>361</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2808,16 +2945,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>512</v>
+        <v>362</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2825,16 +2962,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>512</v>
+        <v>363</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2842,16 +2979,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>512</v>
+        <v>364</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2859,16 +2996,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>512</v>
+        <v>364</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2876,16 +3013,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>512</v>
+        <v>365</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2893,16 +3030,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>512</v>
+        <v>366</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2910,16 +3047,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>512</v>
+        <v>300</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2927,16 +3064,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>512</v>
+        <v>366</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2944,16 +3081,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>512</v>
+        <v>367</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2961,16 +3098,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>512</v>
+        <v>367</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.65">
@@ -2978,16 +3115,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>512</v>
+        <v>301</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -2995,16 +3132,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>512</v>
+        <v>368</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3012,16 +3149,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>514</v>
+        <v>369</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3029,16 +3166,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>514</v>
+        <v>300</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3046,16 +3183,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>514</v>
+        <v>300</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3063,16 +3200,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>515</v>
+        <v>301</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3080,16 +3217,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>516</v>
+        <v>301</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3097,16 +3234,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>517</v>
+        <v>368</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3114,16 +3251,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>518</v>
+        <v>370</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3131,16 +3268,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>512</v>
+        <v>371</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3148,16 +3285,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>519</v>
+        <v>372</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3165,16 +3302,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>519</v>
+        <v>373</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3182,16 +3319,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>520</v>
+        <v>373</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3199,16 +3336,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>511</v>
+        <v>484</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3216,16 +3353,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>511</v>
+        <v>484</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3233,16 +3370,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>511</v>
+        <v>484</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3250,16 +3387,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>511</v>
+        <v>484</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3267,16 +3404,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>511</v>
+        <v>484</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3284,16 +3421,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>511</v>
+        <v>484</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3301,16 +3438,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>511</v>
+        <v>484</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3318,16 +3455,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>511</v>
+        <v>485</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3335,16 +3472,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>512</v>
+        <v>365</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3352,16 +3489,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>512</v>
+        <v>365</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3369,16 +3506,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>512</v>
+        <v>300</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3386,16 +3523,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>520</v>
+        <v>486</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3403,16 +3540,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>520</v>
+        <v>486</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3420,16 +3557,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>520</v>
+        <v>486</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3437,16 +3574,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>520</v>
+        <v>486</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3454,16 +3591,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>512</v>
+        <v>487</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3471,16 +3608,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>520</v>
+        <v>488</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3491,13 +3628,13 @@
         <v>17</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>521</v>
+        <v>489</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3508,13 +3645,13 @@
         <v>18</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>521</v>
+        <v>490</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3528,10 +3665,10 @@
         <v>117</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>522</v>
+        <v>374</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3545,10 +3682,10 @@
         <v>117</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>522</v>
+        <v>375</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3562,10 +3699,10 @@
         <v>117</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>522</v>
+        <v>376</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3579,10 +3716,10 @@
         <v>117</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>522</v>
+        <v>377</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3596,10 +3733,10 @@
         <v>117</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>522</v>
+        <v>378</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3613,10 +3750,10 @@
         <v>117</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>522</v>
+        <v>379</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3630,10 +3767,10 @@
         <v>117</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>522</v>
+        <v>380</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3647,10 +3784,10 @@
         <v>117</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>522</v>
+        <v>381</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3658,16 +3795,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>523</v>
+        <v>382</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3675,16 +3812,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>523</v>
+        <v>382</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3692,16 +3829,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>523</v>
+        <v>382</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3709,16 +3846,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>523</v>
+        <v>383</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3726,16 +3863,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>523</v>
+        <v>383</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3743,16 +3880,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>523</v>
+        <v>383</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3760,16 +3897,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>523</v>
+        <v>383</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3777,16 +3914,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>523</v>
+        <v>383</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3794,16 +3931,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>523</v>
+        <v>383</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3811,16 +3948,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>523</v>
+        <v>383</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3831,13 +3968,13 @@
         <v>42</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>524</v>
+        <v>384</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3848,13 +3985,13 @@
         <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>524</v>
+        <v>385</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3865,13 +4002,13 @@
         <v>37</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>524</v>
+        <v>385</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3882,13 +4019,13 @@
         <v>38</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>512</v>
+        <v>385</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3899,13 +4036,13 @@
         <v>43</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>524</v>
+        <v>385</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3916,13 +4053,13 @@
         <v>39</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>524</v>
+        <v>385</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3933,13 +4070,13 @@
         <v>40</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>524</v>
+        <v>385</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3950,13 +4087,13 @@
         <v>41</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>524</v>
+        <v>385</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3967,13 +4104,13 @@
         <v>44</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>524</v>
+        <v>386</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -3984,13 +4121,13 @@
         <v>45</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>524</v>
+        <v>386</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4001,13 +4138,13 @@
         <v>6</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>525</v>
+      <c r="E92" s="13" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4018,13 +4155,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>512</v>
+      <c r="E93" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4035,13 +4172,13 @@
         <v>46</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>526</v>
+        <v>387</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4052,13 +4189,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>526</v>
+        <v>387</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4069,13 +4206,13 @@
         <v>48</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>527</v>
+        <v>387</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4086,13 +4223,13 @@
         <v>49</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>526</v>
+        <v>387</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4103,13 +4240,13 @@
         <v>50</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>526</v>
+        <v>387</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4120,13 +4257,13 @@
         <v>51</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>526</v>
+        <v>387</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4137,13 +4274,13 @@
         <v>52</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>526</v>
+        <v>387</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4154,13 +4291,13 @@
         <v>66</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>528</v>
+        <v>388</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4171,13 +4308,13 @@
         <v>53</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>512</v>
+        <v>388</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4188,13 +4325,13 @@
         <v>54</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>528</v>
+        <v>388</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4205,13 +4342,13 @@
         <v>55</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>528</v>
+        <v>388</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4222,13 +4359,13 @@
         <v>56</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>528</v>
+        <v>388</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4239,13 +4376,13 @@
         <v>67</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>528</v>
+        <v>388</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4256,13 +4393,13 @@
         <v>57</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>528</v>
+        <v>388</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4273,13 +4410,13 @@
         <v>58</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>528</v>
+        <v>389</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4290,13 +4427,13 @@
         <v>59</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>529</v>
+        <v>390</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4307,13 +4444,13 @@
         <v>60</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>529</v>
+        <v>391</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4324,13 +4461,13 @@
         <v>0</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>512</v>
+        <v>303</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4341,13 +4478,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>520</v>
+        <v>303</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4358,13 +4495,13 @@
         <v>2</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>520</v>
+        <v>303</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4375,13 +4512,13 @@
         <v>3</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>525</v>
+        <v>303</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4392,13 +4529,13 @@
         <v>4</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>512</v>
+        <v>303</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4409,13 +4546,13 @@
         <v>68</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>530</v>
+        <v>392</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4426,13 +4563,13 @@
         <v>69</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>530</v>
+        <v>392</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4443,13 +4580,13 @@
         <v>70</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>530</v>
+        <v>393</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4460,13 +4597,13 @@
         <v>71</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>530</v>
+        <v>394</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4477,13 +4614,13 @@
         <v>72</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>530</v>
+        <v>394</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4494,13 +4631,13 @@
         <v>73</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>530</v>
+        <v>394</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4511,13 +4648,13 @@
         <v>74</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>530</v>
+        <v>395</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4528,13 +4665,13 @@
         <v>75</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>530</v>
+        <v>396</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4545,13 +4682,13 @@
         <v>76</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>530</v>
+        <v>397</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4562,13 +4699,13 @@
         <v>61</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>530</v>
+        <v>398</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4579,13 +4716,13 @@
         <v>62</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>530</v>
+        <v>399</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4596,13 +4733,13 @@
         <v>63</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>530</v>
+        <v>400</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4613,13 +4750,13 @@
         <v>64</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>530</v>
+        <v>400</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4630,13 +4767,13 @@
         <v>65</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>530</v>
+        <v>401</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4647,13 +4784,13 @@
         <v>79</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>531</v>
+        <v>402</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4664,13 +4801,13 @@
         <v>80</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>531</v>
+        <v>402</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4681,13 +4818,13 @@
         <v>81</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>531</v>
+        <v>402</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4698,13 +4835,13 @@
         <v>82</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>531</v>
+        <v>402</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4715,13 +4852,13 @@
         <v>11</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>531</v>
+        <v>403</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4732,13 +4869,13 @@
         <v>83</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>531</v>
+        <v>404</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4749,13 +4886,13 @@
         <v>84</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>531</v>
+        <v>404</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4766,13 +4903,13 @@
         <v>9</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>512</v>
+        <v>304</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4783,13 +4920,13 @@
         <v>10</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>512</v>
+        <v>304</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4800,13 +4937,13 @@
         <v>12</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E139" s="11" t="s">
-        <v>512</v>
+      <c r="E139" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4817,13 +4954,13 @@
         <v>13</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E140" s="11" t="s">
-        <v>512</v>
+      <c r="E140" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4834,13 +4971,13 @@
         <v>27</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>512</v>
+        <v>305</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4851,13 +4988,13 @@
         <v>85</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>532</v>
+        <v>405</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4868,13 +5005,13 @@
         <v>86</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>532</v>
+        <v>406</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4885,13 +5022,13 @@
         <v>87</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>532</v>
+        <v>407</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4902,13 +5039,13 @@
         <v>14</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>512</v>
+        <v>306</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4919,13 +5056,13 @@
         <v>88</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>533</v>
+        <v>408</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4936,13 +5073,13 @@
         <v>89</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>533</v>
+        <v>409</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4953,13 +5090,13 @@
         <v>90</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>533</v>
+        <v>410</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4970,13 +5107,13 @@
         <v>91</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>533</v>
+        <v>411</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -4987,13 +5124,13 @@
         <v>92</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>533</v>
+        <v>412</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5004,13 +5141,13 @@
         <v>93</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>533</v>
+        <v>412</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5021,13 +5158,13 @@
         <v>94</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>533</v>
+        <v>413</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5038,13 +5175,13 @@
         <v>95</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>533</v>
+        <v>414</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5055,13 +5192,13 @@
         <v>96</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>533</v>
+        <v>415</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5072,13 +5209,13 @@
         <v>97</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>533</v>
+        <v>416</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5089,11 +5226,11 @@
         <v>15</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D156" s="3"/>
-      <c r="E156" s="11" t="s">
-        <v>533</v>
+      <c r="E156" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5104,11 +5241,11 @@
         <v>16</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D157" s="3"/>
-      <c r="E157" s="11" t="s">
-        <v>533</v>
+      <c r="E157" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5119,11 +5256,11 @@
         <v>19</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D158" s="3"/>
-      <c r="E158" s="11" t="s">
-        <v>512</v>
+      <c r="E158" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5134,11 +5271,11 @@
         <v>26</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D159" s="3"/>
-      <c r="E159" s="11" t="s">
-        <v>512</v>
+      <c r="E159" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5149,13 +5286,13 @@
         <v>98</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5166,13 +5303,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5183,13 +5320,13 @@
         <v>100</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5200,13 +5337,13 @@
         <v>101</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5217,13 +5354,13 @@
         <v>102</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5234,13 +5371,13 @@
         <v>103</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5251,13 +5388,13 @@
         <v>104</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5268,13 +5405,13 @@
         <v>105</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5285,13 +5422,13 @@
         <v>106</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5302,13 +5439,13 @@
         <v>107</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5319,13 +5456,13 @@
         <v>108</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5336,13 +5473,13 @@
         <v>109</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>533</v>
+        <v>417</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5353,13 +5490,13 @@
         <v>110</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E172" s="11" t="s">
-        <v>533</v>
+        <v>418</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5370,13 +5507,13 @@
         <v>111</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>533</v>
+        <v>419</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5387,13 +5524,13 @@
         <v>112</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>533</v>
+        <v>420</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5404,13 +5541,13 @@
         <v>113</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E175" s="11" t="s">
-        <v>533</v>
+        <v>419</v>
+      </c>
+      <c r="E175" s="13" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5421,13 +5558,13 @@
         <v>114</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>533</v>
+        <v>421</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5438,13 +5575,13 @@
         <v>115</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>533</v>
+        <v>422</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5455,13 +5592,13 @@
         <v>116</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>533</v>
+        <v>423</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5472,13 +5609,13 @@
         <v>118</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>533</v>
+        <v>424</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5489,13 +5626,13 @@
         <v>119</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>533</v>
+        <v>425</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5506,13 +5643,13 @@
         <v>120</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>533</v>
+        <v>426</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5523,13 +5660,13 @@
         <v>121</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E182" s="11" t="s">
-        <v>533</v>
+        <v>427</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5540,13 +5677,13 @@
         <v>122</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E183" s="11" t="s">
-        <v>533</v>
+        <v>427</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5557,13 +5694,13 @@
         <v>123</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E184" s="11" t="s">
-        <v>533</v>
+        <v>428</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5574,13 +5711,13 @@
         <v>124</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>533</v>
+        <v>429</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5591,13 +5728,13 @@
         <v>125</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E186" s="11" t="s">
-        <v>533</v>
+        <v>429</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5608,13 +5745,13 @@
         <v>126</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>534</v>
+        <v>430</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5625,13 +5762,13 @@
         <v>127</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E188" s="11" t="s">
-        <v>533</v>
+        <v>431</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5642,13 +5779,13 @@
         <v>129</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E189" s="11" t="s">
-        <v>533</v>
+        <v>432</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5662,10 +5799,10 @@
         <v>139</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E190" s="11" t="s">
-        <v>533</v>
+        <v>433</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5679,10 +5816,10 @@
         <v>139</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>533</v>
+        <v>434</v>
+      </c>
+      <c r="E191" s="13" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5696,10 +5833,10 @@
         <v>139</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>533</v>
+        <v>435</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5713,10 +5850,10 @@
         <v>139</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E193" s="11" t="s">
-        <v>533</v>
+        <v>436</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5730,10 +5867,10 @@
         <v>139</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E194" s="11" t="s">
-        <v>533</v>
+        <v>437</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5747,10 +5884,10 @@
         <v>139</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E195" s="11" t="s">
-        <v>533</v>
+        <v>438</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5764,10 +5901,10 @@
         <v>139</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="E196" s="11" t="s">
-        <v>533</v>
+        <v>439</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5781,10 +5918,10 @@
         <v>139</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E197" s="11" t="s">
-        <v>533</v>
+        <v>440</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5798,10 +5935,10 @@
         <v>139</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="E198" s="11" t="s">
-        <v>533</v>
+        <v>441</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5815,10 +5952,10 @@
         <v>139</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E199" s="11" t="s">
-        <v>533</v>
+        <v>442</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5832,10 +5969,10 @@
         <v>139</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E200" s="11" t="s">
-        <v>533</v>
+        <v>443</v>
+      </c>
+      <c r="E200" s="13" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5851,8 +5988,8 @@
       <c r="D201" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E201" s="11" t="s">
-        <v>533</v>
+      <c r="E201" s="13" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5863,13 +6000,13 @@
         <v>142</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>533</v>
+        <v>444</v>
+      </c>
+      <c r="E202" s="13" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5880,13 +6017,13 @@
         <v>143</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E203" s="11" t="s">
-        <v>533</v>
+        <v>445</v>
+      </c>
+      <c r="E203" s="13" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5897,13 +6034,13 @@
         <v>144</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E204" s="11" t="s">
-        <v>535</v>
+        <v>446</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5914,13 +6051,13 @@
         <v>145</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E205" s="11" t="s">
-        <v>533</v>
+        <v>447</v>
+      </c>
+      <c r="E205" s="13" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5931,13 +6068,13 @@
         <v>21</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E206" s="11" t="s">
-        <v>512</v>
+        <v>304</v>
+      </c>
+      <c r="E206" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5948,13 +6085,13 @@
         <v>146</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="E207" s="11" t="s">
-        <v>512</v>
+        <v>448</v>
+      </c>
+      <c r="E207" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5965,13 +6102,13 @@
         <v>147</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="E208" s="11" t="s">
-        <v>512</v>
+        <v>449</v>
+      </c>
+      <c r="E208" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5982,13 +6119,13 @@
         <v>148</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E209" s="11" t="s">
-        <v>512</v>
+        <v>450</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5999,13 +6136,13 @@
         <v>149</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E210" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E210" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6016,13 +6153,13 @@
         <v>150</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E211" s="11" t="s">
-        <v>536</v>
+        <v>452</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6033,13 +6170,13 @@
         <v>151</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E212" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E212" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6050,13 +6187,13 @@
         <v>152</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E213" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E213" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6067,13 +6204,13 @@
         <v>153</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E214" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6084,13 +6221,13 @@
         <v>154</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E215" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E215" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6101,13 +6238,13 @@
         <v>155</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E216" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E216" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6118,13 +6255,13 @@
         <v>156</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E217" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E217" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6135,13 +6272,13 @@
         <v>157</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E218" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E218" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6152,13 +6289,13 @@
         <v>158</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E219" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6169,13 +6306,13 @@
         <v>159</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E220" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E220" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6186,13 +6323,13 @@
         <v>160</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E221" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E221" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6203,13 +6340,13 @@
         <v>161</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E222" s="11" t="s">
-        <v>536</v>
+        <v>453</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6220,13 +6357,13 @@
         <v>162</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E223" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6237,13 +6374,13 @@
         <v>163</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E224" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6254,13 +6391,13 @@
         <v>164</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E225" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E225" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6271,13 +6408,13 @@
         <v>165</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E226" s="11" t="s">
-        <v>536</v>
+        <v>451</v>
+      </c>
+      <c r="E226" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6288,13 +6425,13 @@
         <v>166</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E227" s="11" t="s">
-        <v>536</v>
+        <v>431</v>
+      </c>
+      <c r="E227" s="13" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6305,13 +6442,13 @@
         <v>167</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E228" s="11" t="s">
-        <v>536</v>
+        <v>431</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6322,13 +6459,13 @@
         <v>168</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E229" s="11" t="s">
-        <v>536</v>
+        <v>431</v>
+      </c>
+      <c r="E229" s="13" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6339,13 +6476,13 @@
         <v>169</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E230" s="11" t="s">
-        <v>536</v>
+        <v>431</v>
+      </c>
+      <c r="E230" s="13" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6356,13 +6493,13 @@
         <v>170</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E231" s="11" t="s">
-        <v>536</v>
+        <v>431</v>
+      </c>
+      <c r="E231" s="13" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6373,13 +6510,13 @@
         <v>171</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E232" s="11" t="s">
-        <v>536</v>
+        <v>431</v>
+      </c>
+      <c r="E232" s="13" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6390,13 +6527,13 @@
         <v>172</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E233" s="11" t="s">
-        <v>536</v>
+        <v>431</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6407,13 +6544,13 @@
         <v>173</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E234" s="11" t="s">
-        <v>536</v>
+        <v>431</v>
+      </c>
+      <c r="E234" s="13" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6424,13 +6561,13 @@
         <v>174</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="E235" s="11" t="s">
-        <v>536</v>
+        <v>454</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6441,13 +6578,13 @@
         <v>175</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="E236" s="11" t="s">
-        <v>536</v>
+        <v>454</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6458,13 +6595,13 @@
         <v>176</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="E237" s="11" t="s">
-        <v>536</v>
+        <v>454</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6475,13 +6612,13 @@
         <v>177</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="E238" s="11" t="s">
-        <v>536</v>
+        <v>454</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6492,13 +6629,13 @@
         <v>178</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="E239" s="11" t="s">
-        <v>536</v>
+        <v>454</v>
+      </c>
+      <c r="E239" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6512,10 +6649,10 @@
         <v>179</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>536</v>
+        <v>455</v>
+      </c>
+      <c r="E240" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6529,10 +6666,10 @@
         <v>179</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E241" s="11" t="s">
-        <v>536</v>
+        <v>455</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6546,10 +6683,10 @@
         <v>179</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E242" s="11" t="s">
-        <v>536</v>
+        <v>431</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6563,10 +6700,10 @@
         <v>179</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E243" s="11" t="s">
-        <v>536</v>
+        <v>455</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6577,13 +6714,13 @@
         <v>184</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="E244" s="11" t="s">
-        <v>536</v>
+        <v>456</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6594,13 +6731,13 @@
         <v>185</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E245" s="11" t="s">
-        <v>536</v>
+        <v>457</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6611,13 +6748,13 @@
         <v>186</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E246" s="11" t="s">
-        <v>536</v>
+        <v>457</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6628,13 +6765,13 @@
         <v>187</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E247" s="11" t="s">
-        <v>536</v>
+        <v>457</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6645,13 +6782,13 @@
         <v>188</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E248" s="11" t="s">
-        <v>536</v>
+        <v>457</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6662,13 +6799,13 @@
         <v>189</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E249" s="11" t="s">
-        <v>536</v>
+        <v>457</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6679,13 +6816,13 @@
         <v>190</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E250" s="11" t="s">
-        <v>536</v>
+        <v>458</v>
+      </c>
+      <c r="E250" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6696,13 +6833,13 @@
         <v>191</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E251" s="11" t="s">
-        <v>536</v>
+        <v>458</v>
+      </c>
+      <c r="E251" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6713,13 +6850,13 @@
         <v>192</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E252" s="11" t="s">
-        <v>536</v>
+        <v>458</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6730,13 +6867,13 @@
         <v>193</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="E253" s="11" t="s">
-        <v>536</v>
+        <v>459</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6747,13 +6884,13 @@
         <v>194</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="E254" s="11" t="s">
-        <v>536</v>
+        <v>460</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6764,13 +6901,13 @@
         <v>195</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="E255" s="11" t="s">
-        <v>536</v>
+        <v>460</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6781,13 +6918,13 @@
         <v>196</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E256" s="11" t="s">
-        <v>536</v>
+        <v>461</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6798,13 +6935,13 @@
         <v>197</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="E257" s="11" t="s">
-        <v>536</v>
+        <v>462</v>
+      </c>
+      <c r="E257" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6815,13 +6952,13 @@
         <v>198</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="E258" s="11" t="s">
-        <v>536</v>
+        <v>463</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6832,13 +6969,13 @@
         <v>201</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="E259" s="11" t="s">
-        <v>536</v>
+        <v>464</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6849,13 +6986,13 @@
         <v>202</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="E260" s="11" t="s">
-        <v>536</v>
+        <v>465</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6866,13 +7003,13 @@
         <v>203</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="E261" s="11" t="s">
-        <v>536</v>
+        <v>464</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6883,13 +7020,13 @@
         <v>204</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="E262" s="11" t="s">
-        <v>536</v>
+        <v>466</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6900,13 +7037,13 @@
         <v>205</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="E263" s="11" t="s">
-        <v>536</v>
+        <v>467</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6917,13 +7054,13 @@
         <v>206</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="E264" s="11" t="s">
-        <v>536</v>
+        <v>465</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6934,13 +7071,13 @@
         <v>207</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E265" s="11" t="s">
-        <v>536</v>
+        <v>468</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6951,13 +7088,13 @@
         <v>208</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E266" s="11" t="s">
-        <v>536</v>
+        <v>468</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6968,13 +7105,13 @@
         <v>209</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E267" s="11" t="s">
-        <v>536</v>
+        <v>469</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -6985,13 +7122,13 @@
         <v>210</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E268" s="11" t="s">
-        <v>536</v>
+        <v>469</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7002,13 +7139,13 @@
         <v>211</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="E269" s="11" t="s">
-        <v>536</v>
+        <v>470</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7016,16 +7153,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E270" s="11" t="s">
-        <v>537</v>
+        <v>496</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7033,16 +7170,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E271" s="11" t="s">
-        <v>538</v>
+        <v>497</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7050,16 +7187,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="E272" s="11" t="s">
-        <v>538</v>
+        <v>498</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7067,16 +7204,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="E273" s="11" t="s">
-        <v>537</v>
+        <v>499</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7084,16 +7221,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E274" s="11" t="s">
-        <v>539</v>
+        <v>500</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7104,13 +7241,13 @@
         <v>212</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E275" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E275" s="13" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7121,13 +7258,13 @@
         <v>213</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E276" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E276" s="13" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7138,13 +7275,13 @@
         <v>214</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E277" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E277" s="13" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7155,13 +7292,13 @@
         <v>215</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E278" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7172,13 +7309,13 @@
         <v>216</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E279" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E279" s="13" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7189,13 +7326,13 @@
         <v>217</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E280" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E280" s="13" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7206,13 +7343,13 @@
         <v>218</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E281" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E281" s="13" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7223,13 +7360,13 @@
         <v>219</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E282" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E282" s="13" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7237,16 +7374,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E283" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E283" s="13" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7254,16 +7391,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E284" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E284" s="13" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7271,16 +7408,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E285" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E285" s="13" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7288,16 +7425,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E286" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E286" s="13" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7308,13 +7445,13 @@
         <v>223</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E287" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E287" s="13" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7325,13 +7462,13 @@
         <v>224</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E288" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E288" s="13" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7342,13 +7479,13 @@
         <v>225</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E289" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E289" s="13" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7359,13 +7496,13 @@
         <v>226</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E290" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E290" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7376,13 +7513,13 @@
         <v>227</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E291" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E291" s="13" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7393,13 +7530,13 @@
         <v>228</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E292" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E292" s="13" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7410,13 +7547,13 @@
         <v>229</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E293" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E293" s="13" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7427,13 +7564,13 @@
         <v>230</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E294" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E294" s="13" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7444,13 +7581,13 @@
         <v>231</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E295" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E295" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7461,13 +7598,13 @@
         <v>232</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E296" s="11" t="s">
-        <v>540</v>
+        <v>471</v>
+      </c>
+      <c r="E296" s="13" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7478,13 +7615,13 @@
         <v>233</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E297" s="11" t="s">
-        <v>540</v>
+        <v>472</v>
+      </c>
+      <c r="E297" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7495,13 +7632,13 @@
         <v>234</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E298" s="11" t="s">
-        <v>540</v>
+        <v>472</v>
+      </c>
+      <c r="E298" s="13" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7512,13 +7649,13 @@
         <v>235</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E299" s="11" t="s">
-        <v>540</v>
+        <v>472</v>
+      </c>
+      <c r="E299" s="13" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7529,13 +7666,13 @@
         <v>236</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E300" s="11" t="s">
-        <v>540</v>
+        <v>473</v>
+      </c>
+      <c r="E300" s="13" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7546,13 +7683,13 @@
         <v>237</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E301" s="11" t="s">
-        <v>540</v>
+        <v>474</v>
+      </c>
+      <c r="E301" s="13" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7563,30 +7700,30 @@
         <v>238</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E302" s="11" t="s">
-        <v>540</v>
+        <v>475</v>
+      </c>
+      <c r="E302" s="13" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A303" s="3">
         <v>302</v>
       </c>
-      <c r="B303" s="3" t="s">
-        <v>239</v>
+      <c r="B303" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E303" s="11" t="s">
-        <v>540</v>
+        <v>476</v>
+      </c>
+      <c r="E303" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7594,16 +7731,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>338</v>
+        <v>530</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="E304" s="11" t="s">
-        <v>540</v>
+        <v>477</v>
+      </c>
+      <c r="E304" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7611,16 +7748,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>338</v>
+        <v>530</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="E305" s="11" t="s">
-        <v>540</v>
+        <v>477</v>
+      </c>
+      <c r="E305" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7628,16 +7765,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>338</v>
+        <v>530</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="E306" s="11" t="s">
-        <v>540</v>
+        <v>477</v>
+      </c>
+      <c r="E306" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7645,16 +7782,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>338</v>
+        <v>530</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="E307" s="11" t="s">
-        <v>540</v>
+        <v>477</v>
+      </c>
+      <c r="E307" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7662,16 +7799,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>329</v>
+        <v>530</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E308" s="11" t="s">
-        <v>531</v>
+        <v>477</v>
+      </c>
+      <c r="E308" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7679,16 +7816,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>329</v>
+        <v>530</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E309" s="11" t="s">
-        <v>541</v>
+        <v>477</v>
+      </c>
+      <c r="E309" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7696,33 +7833,33 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>329</v>
+        <v>530</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E310" s="11" t="s">
-        <v>541</v>
+        <v>477</v>
+      </c>
+      <c r="E310" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A311" s="3">
         <v>310</v>
       </c>
-      <c r="B311" s="8" t="s">
-        <v>22</v>
+      <c r="B311" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>329</v>
+        <v>530</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="E311" s="11" t="s">
-        <v>512</v>
+        <v>478</v>
+      </c>
+      <c r="E311" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7733,13 +7870,13 @@
         <v>247</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E312" s="11" t="s">
-        <v>536</v>
+        <v>479</v>
+      </c>
+      <c r="E312" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7750,13 +7887,13 @@
         <v>248</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E313" s="11" t="s">
-        <v>536</v>
+        <v>479</v>
+      </c>
+      <c r="E313" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7767,13 +7904,13 @@
         <v>249</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E314" s="11" t="s">
-        <v>536</v>
+        <v>480</v>
+      </c>
+      <c r="E314" s="13" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7784,30 +7921,30 @@
         <v>250</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E315" s="11" t="s">
-        <v>536</v>
+        <v>480</v>
+      </c>
+      <c r="E315" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A316" s="3">
         <v>315</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E316" s="11" t="s">
-        <v>536</v>
+        <v>481</v>
+      </c>
+      <c r="E316" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7815,16 +7952,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D317" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E317" s="11" t="s">
-        <v>536</v>
+        <v>530</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E317" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7832,16 +7969,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>552</v>
+        <v>319</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E318" s="11" t="s">
-        <v>536</v>
+        <v>482</v>
+      </c>
+      <c r="E318" s="13" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -7849,184 +7986,48 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>254</v>
+        <v>128</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="E319" s="11" t="s">
-        <v>536</v>
+        <v>334</v>
+      </c>
+      <c r="D319" s="3"/>
+      <c r="E319" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A320" s="3">
         <v>319</v>
       </c>
-      <c r="B320" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D320" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="E320" s="11" t="s">
-        <v>536</v>
+      <c r="B320" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E320" s="13" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A321" s="3">
         <v>320</v>
       </c>
-      <c r="B321" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D321" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="E321" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A322" s="3">
-        <v>321</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D322" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="E322" s="11" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A323" s="3">
-        <v>322</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D323" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="E323" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A324" s="3">
-        <v>323</v>
-      </c>
-      <c r="B324" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D324" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E324" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A325" s="3">
-        <v>324</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E325" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A326" s="3">
-        <v>325</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D326" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="E326" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A327" s="3">
-        <v>326</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D327" s="3"/>
-      <c r="E327" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A328" s="3">
-        <v>327</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D328" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E328" s="11" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A329" s="3">
-        <v>328</v>
-      </c>
-      <c r="B329" s="9" t="s">
+      <c r="B321" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C329" s="9" t="s">
+      <c r="C321" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D329" s="9" t="s">
+      <c r="D321" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E329" s="11" t="s">
-        <v>536</v>
+      <c r="E321" s="13" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
